--- a/src/results/data.xlsx
+++ b/src/results/data.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>10월 10일</t>
+  </si>
+  <si>
+    <t>10월 11일</t>
+  </si>
+  <si>
+    <t>10월 12일</t>
+  </si>
+  <si>
+    <t>10월 13일</t>
+  </si>
+  <si>
+    <t>10월 14일</t>
+  </si>
   <si>
     <t>조식</t>
   </si>
@@ -67,13 +82,11 @@
   <si>
     <t xml:space="preserve"> 치커리샐러드*살구드레싱
  떡만두국
-쌀밤
+쌀밥
 생선까스*타르타르5
 연두부찜
 다시마브로콜리숙회
-깜두기
-선르즈
-석류주스
+각두기
 </t>
   </si>
   <si>
@@ -105,10 +118,9 @@
  고추참치덮밥
 유부장국
 수제)페스츄리핫도그
-어묵복음
+어묵볶음
 후르츠샐러드
 각두기
-건빵튀김
 </t>
   </si>
   <si>
@@ -141,12 +153,11 @@
   <si>
     <t xml:space="preserve"> ^ 건포도샐러드*블루베리드레싱
  나폴리탄스파게티
-크링스프/오복지양념밥
+크림스프/오복지양념밥
 할라피뇨미트볼
 백패커 '오레오튀김'
 수제피클
-버추김       `조
-베이비샐러드
+배추김치 “호
 </t>
   </si>
   <si>
@@ -180,9 +191,8 @@
 쌀밥
 고추잡채*가리비꽃빵
 양장피냉채
- 머부지
-"추김치
-~           _
+ㆍ         단무지
+톡 2 배추김치
 </t>
   </si>
 </sst>
@@ -548,94 +558,94 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
